--- a/TXT/Reprise_données_Demandes/reprise_de_données-Demandes.xlsx
+++ b/TXT/Reprise_données_Demandes/reprise_de_données-Demandes.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise données Demandes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Demandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82B395-1A01-48E9-946E-5B93CE85E827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01983625-00DF-4E14-B4BE-A31713943D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Utilisateur" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Demandes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
   <si>
     <t>BD source (Access)</t>
   </si>
@@ -66,9 +65,6 @@
     <t>N_DMD ( NuméroAuto = Index)</t>
   </si>
   <si>
-    <t>Récup sans transformation. Dans la cible c'est une séquence</t>
-  </si>
-  <si>
     <t>Non renseigné</t>
   </si>
   <si>
@@ -90,9 +86,6 @@
     <t>D_emis (date/Heure)</t>
   </si>
   <si>
-    <t>Libelle (VARCHAR 80)</t>
-  </si>
-  <si>
     <t>date_emis (Date)</t>
   </si>
   <si>
@@ -111,15 +104,9 @@
     <t>Priorite (Numérique)</t>
   </si>
   <si>
-    <t>qual_dmd (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
     <t>Type (Texte court)</t>
   </si>
   <si>
-    <t>util_sign_dmd (Numérique == clé étrangère)</t>
-  </si>
-  <si>
     <t>Récup avec transformation</t>
   </si>
   <si>
@@ -183,33 +170,15 @@
     <t>nom_form (Texte court)</t>
   </si>
   <si>
-    <t>Récup sans transformation.</t>
-  </si>
-  <si>
     <t>Recup sans transformation.</t>
   </si>
   <si>
     <t xml:space="preserve">Recup sans transformation. </t>
   </si>
   <si>
-    <t>prt_dmd (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
-    <t>util_benef (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
-    <t>etat_dmd (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
-    <t>util_emet (Numérique == Clé etrangère)</t>
-  </si>
-  <si>
     <t>Nom_resp (Texte court)</t>
   </si>
   <si>
-    <t>util_affect_dmd (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
     <t>Non renseigner</t>
   </si>
   <si>
@@ -219,22 +188,46 @@
     <t>date_archiv</t>
   </si>
   <si>
-    <t>util_crea (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
     <t>date_crea (Date)</t>
   </si>
   <si>
-    <t>dom_dmd (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
-    <t>Regroupement (Numérique == Clé étrangère)</t>
-  </si>
-  <si>
-    <t>IdDemande (Numérique == Clé primaire)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recup avec </t>
+    <t>Récupe sans transformation. Dans la cible c'est une séquence</t>
+  </si>
+  <si>
+    <t>dom_dmd (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>Libelle (VARCHAR (80) )</t>
+  </si>
+  <si>
+    <t>util_crea (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>etat_dmd (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>Regroupement (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>util_sign_dmd (int == clé étrangère)</t>
+  </si>
+  <si>
+    <t>qual_dmd (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>prt_dmd (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>util_benef (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>util_emet (int == Clé etrangère)</t>
+  </si>
+  <si>
+    <t>util_affect_dmd (int == Clé étrangère)</t>
+  </si>
+  <si>
+    <t>IdDemande (int  == AUTO INCREMENT)</t>
   </si>
 </sst>
 </file>
@@ -373,6 +366,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,7 +718,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,15 +731,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -763,7 +756,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -776,10 +769,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,15 +797,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -821,16 +814,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -838,16 +831,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,16 +848,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,13 +865,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>54</v>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -887,33 +880,33 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,16 +914,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,16 +931,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,13 +948,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
@@ -972,33 +965,33 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>32</v>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,13 +999,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
@@ -1023,16 +1016,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,16 +1033,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,16 +1067,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>56</v>
+      <c r="D22" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,16 +1101,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>58</v>
+      <c r="D23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,16 +1118,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,16 +1135,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,16 +1152,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,34 +1169,24 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1213,16 +1196,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D569-0A44-41AC-9C92-446196868A69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>